--- a/Hardware/CalibrationTTGO&ADS1115.xlsx
+++ b/Hardware/CalibrationTTGO&ADS1115.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="0" windowWidth="37455" windowHeight="18285" activeTab="2"/>
+    <workbookView xWindow="13230" yWindow="0" windowWidth="37455" windowHeight="18285" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JuntekB3603" sheetId="6" r:id="rId1"/>
     <sheet name="JuntekD3806" sheetId="7" r:id="rId2"/>
     <sheet name="DrokDPS6008" sheetId="4" r:id="rId3"/>
-    <sheet name="DrokDPS6812" sheetId="8" r:id="rId4"/>
+    <sheet name="DrokDPS6012" sheetId="8" r:id="rId4"/>
+    <sheet name="Pinouts" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="53">
   <si>
     <t>PWM - V</t>
   </si>
@@ -110,7 +111,82 @@
     <t>JuntekB3603.h</t>
   </si>
   <si>
-    <t>Drok6812.h  (Only template, not yet tested)</t>
+    <t xml:space="preserve">Drok6012.h </t>
+  </si>
+  <si>
+    <t>DKP 6012</t>
+  </si>
+  <si>
+    <t>DKP6008</t>
+  </si>
+  <si>
+    <t>Droking</t>
+  </si>
+  <si>
+    <t>Juntek</t>
+  </si>
+  <si>
+    <t>B3603</t>
+  </si>
+  <si>
+    <t>D6006</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV/CC </t>
+  </si>
+  <si>
+    <t>Vout sense</t>
+  </si>
+  <si>
+    <t>I out sense</t>
+  </si>
+  <si>
+    <t>Iout PWM</t>
+  </si>
+  <si>
+    <t>Vout PWM</t>
+  </si>
+  <si>
+    <t>FanPWM</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>CV/CC ??</t>
+  </si>
+  <si>
+    <t>(Free)</t>
+  </si>
+  <si>
+    <t>Vin sense</t>
+  </si>
+  <si>
+    <t>Left Connector</t>
+  </si>
+  <si>
+    <t>Right Connector</t>
+  </si>
+  <si>
+    <t>+5V</t>
+  </si>
+  <si>
+    <t>DC / DC converter   Motherboard connectors</t>
+  </si>
+  <si>
+    <t>Not Enable (by default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Enable </t>
+  </si>
+  <si>
+    <t>Not Enable (Pullup)</t>
   </si>
 </sst>
 </file>
@@ -128,7 +204,7 @@
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +326,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +364,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -359,12 +465,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -424,9 +543,34 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -734,15 +878,15 @@
       <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2360,16 +2504,16 @@
       <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4144,8 +4288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:K23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,16 +4313,16 @@
       <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6367,8 +6511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6392,16 +6536,16 @@
       <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6435,11 +6579,11 @@
       </c>
       <c r="B5" s="45">
         <f>B9</f>
-        <v>-1.2000000000000099</v>
+        <v>27.800000000000008</v>
       </c>
       <c r="C5" s="46">
         <f>C9</f>
-        <v>68.150000000000006</v>
+        <v>46.400000000000006</v>
       </c>
       <c r="D5" s="47">
         <f>D9</f>
@@ -6447,11 +6591,11 @@
       </c>
       <c r="E5" s="48">
         <f>E9</f>
-        <v>0</v>
+        <v>47.200000000000038</v>
       </c>
       <c r="F5" s="49">
         <f>F9</f>
-        <v>109.875</v>
+        <v>74.450000000000017</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -6461,7 +6605,7 @@
       </c>
       <c r="K5" s="35">
         <f>B5</f>
-        <v>-1.2000000000000099</v>
+        <v>27.800000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6470,23 +6614,23 @@
       </c>
       <c r="B6" s="50">
         <f>(B45-B15)/30</f>
-        <v>18.2</v>
+        <v>21.033333333333335</v>
       </c>
       <c r="C6" s="50">
-        <f>(C50-C10)/40</f>
-        <v>8.85</v>
+        <f>(C55-C15)/40</f>
+        <v>5.6</v>
       </c>
       <c r="D6" s="50">
         <f>(D39-D9)/30</f>
-        <v>29.8</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="E6" s="51">
         <f>(E45-E15)/30</f>
-        <v>29.166666666666668</v>
+        <v>33.633333333333333</v>
       </c>
       <c r="F6" s="50">
-        <f>(F50-F10)/40</f>
-        <v>14.125</v>
+        <f>(F55-F15)/40</f>
+        <v>8.9250000000000007</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="20"/>
@@ -6496,7 +6640,7 @@
       </c>
       <c r="K6" s="32">
         <f>B6</f>
-        <v>18.2</v>
+        <v>21.033333333333335</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6505,23 +6649,23 @@
       </c>
       <c r="B7" s="47">
         <f>1000/B6</f>
-        <v>54.945054945054949</v>
+        <v>47.543581616481774</v>
       </c>
       <c r="C7" s="52">
         <f>100/C6</f>
-        <v>11.299435028248588</v>
+        <v>17.857142857142858</v>
       </c>
       <c r="D7" s="50">
         <f>1000/D6</f>
-        <v>33.557046979865774</v>
+        <v>32.967032967032971</v>
       </c>
       <c r="E7" s="50">
         <f>1000/E6</f>
-        <v>34.285714285714285</v>
-      </c>
-      <c r="F7" s="50">
+        <v>29.732408325074331</v>
+      </c>
+      <c r="F7" s="52">
         <f>100/F6</f>
-        <v>7.0796460176991154</v>
+        <v>11.204481792717086</v>
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="20"/>
@@ -6531,42 +6675,43 @@
       </c>
       <c r="K7" s="32">
         <f>B7</f>
-        <v>54.945054945054949</v>
+        <v>47.543581616481774</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="31"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9" s="13">
-        <f t="shared" ref="B9:C13" si="0">B10-B$6</f>
-        <v>-1.2000000000000099</v>
+        <f t="shared" ref="B9:C14" si="0">B10-B$6</f>
+        <v>27.800000000000008</v>
       </c>
       <c r="C9" s="13">
         <f t="shared" si="0"/>
-        <v>68.150000000000006</v>
+        <v>46.400000000000006</v>
       </c>
       <c r="D9" s="10">
         <f>G9</f>
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" ref="E9:E14" si="1">E10-E$6</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <f>F10-F6</f>
-        <v>109.875</v>
+        <f t="shared" ref="E9:F14" si="1">E10-E$6</f>
+        <v>47.200000000000038</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="1"/>
+        <v>74.450000000000017</v>
       </c>
       <c r="G9" s="14"/>
       <c r="J9" s="36" t="s">
@@ -6574,37 +6719,39 @@
       </c>
       <c r="K9" s="37">
         <f>C5</f>
-        <v>68.150000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
-        <v>16.999999999999989</v>
-      </c>
-      <c r="C10" s="41">
-        <v>77</v>
+        <v>48.833333333333343</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" si="0"/>
+        <v>52.000000000000007</v>
       </c>
       <c r="D10" s="9">
         <f>D9+D$6</f>
-        <v>29.8</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="E10" s="15">
         <f t="shared" si="1"/>
-        <v>29.166666666666661</v>
-      </c>
-      <c r="F10" s="42">
-        <v>124</v>
+        <v>80.833333333333371</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="1"/>
+        <v>83.375000000000014</v>
       </c>
       <c r="J10" s="36" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="37">
         <f>C6</f>
-        <v>8.85</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6613,30 +6760,30 @@
       </c>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
-        <v>35.199999999999989</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" ref="C11:C32" si="2">C10+C$6</f>
-        <v>85.85</v>
+        <v>69.866666666666674</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="0"/>
+        <v>57.600000000000009</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" ref="D11:F26" si="3">D10+D$6</f>
-        <v>59.6</v>
+        <f t="shared" ref="D11:F26" si="2">D10+D$6</f>
+        <v>60.666666666666664</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="1"/>
-        <v>58.333333333333329</v>
-      </c>
-      <c r="F11" s="3">
-        <f>F10+F$6</f>
-        <v>138.125</v>
+        <v>114.4666666666667</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="1"/>
+        <v>92.300000000000011</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="37">
         <f>C7</f>
-        <v>11.299435028248588</v>
+        <v>17.857142857142858</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6645,23 +6792,23 @@
       </c>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
-        <v>53.399999999999991</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="2"/>
-        <v>94.699999999999989</v>
+        <v>90.9</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>63.20000000000001</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="3"/>
-        <v>89.4</v>
+        <f t="shared" si="2"/>
+        <v>91</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" si="1"/>
-        <v>87.5</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" ref="F12:F75" si="4">F11+F$6</f>
-        <v>152.25</v>
+        <v>148.10000000000002</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
+        <v>101.22500000000001</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="37"/>
@@ -6672,23 +6819,23 @@
       </c>
       <c r="B13" s="13">
         <f t="shared" si="0"/>
-        <v>71.599999999999994</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="2"/>
-        <v>103.54999999999998</v>
+        <v>111.93333333333334</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
+        <v>68.800000000000011</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="3"/>
-        <v>119.2</v>
+        <f t="shared" si="2"/>
+        <v>121.33333333333333</v>
       </c>
       <c r="E13" s="15">
         <f t="shared" si="1"/>
-        <v>116.66666666666667</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="4"/>
-        <v>166.375</v>
+        <v>181.73333333333335</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="1"/>
+        <v>110.15</v>
       </c>
       <c r="J13" s="36" t="s">
         <v>16</v>
@@ -6704,60 +6851,58 @@
       </c>
       <c r="B14" s="13">
         <f>B15-B$6</f>
-        <v>89.8</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="2"/>
-        <v>112.39999999999998</v>
+        <v>132.96666666666667</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="0"/>
+        <v>74.400000000000006</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="3"/>
-        <v>149</v>
+        <f t="shared" si="2"/>
+        <v>151.66666666666666</v>
       </c>
       <c r="E14" s="15">
         <f t="shared" si="1"/>
-        <v>145.83333333333334</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="4"/>
-        <v>180.5</v>
+        <v>215.36666666666667</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="1"/>
+        <v>119.075</v>
       </c>
       <c r="J14" s="36" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="37">
         <f>D6</f>
-        <v>29.8</v>
+        <v>30.333333333333332</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
-      <c r="B15" s="40">
-        <v>108</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="2"/>
-        <v>121.24999999999997</v>
+      <c r="B15" s="67">
+        <v>154</v>
+      </c>
+      <c r="C15" s="41">
+        <v>80</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="3"/>
-        <v>178.8</v>
-      </c>
-      <c r="E15" s="42">
-        <v>175</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="4"/>
-        <v>194.625</v>
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="E15" s="68">
+        <v>249</v>
+      </c>
+      <c r="F15" s="41">
+        <v>128</v>
       </c>
       <c r="J15" s="36" t="s">
         <v>18</v>
       </c>
       <c r="K15" s="37">
         <f>D7</f>
-        <v>33.557046979865774</v>
+        <v>32.967032967032971</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6765,24 +6910,24 @@
         <v>7</v>
       </c>
       <c r="B16" s="13">
-        <f t="shared" ref="B16:B32" si="5">B15+B$6</f>
-        <v>126.2</v>
+        <f t="shared" ref="B16:B32" si="3">B15+B$6</f>
+        <v>175.03333333333333</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="2"/>
-        <v>130.09999999999997</v>
+        <f t="shared" ref="C11:C32" si="4">C15+C$6</f>
+        <v>85.6</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="3"/>
-        <v>208.60000000000002</v>
+        <f t="shared" si="2"/>
+        <v>212.33333333333334</v>
       </c>
       <c r="E16" s="15">
         <f>E15+E$6</f>
-        <v>204.16666666666666</v>
+        <v>282.63333333333333</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="4"/>
-        <v>208.75</v>
+        <f t="shared" ref="F16:F32" si="5">F15+F$6</f>
+        <v>136.92500000000001</v>
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="37"/>
@@ -6792,31 +6937,31 @@
         <v>8</v>
       </c>
       <c r="B17" s="13">
-        <f t="shared" si="5"/>
-        <v>144.4</v>
+        <f t="shared" si="3"/>
+        <v>196.06666666666666</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="2"/>
-        <v>138.94999999999996</v>
+        <f t="shared" si="4"/>
+        <v>91.199999999999989</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="3"/>
-        <v>238.40000000000003</v>
+        <f t="shared" si="2"/>
+        <v>242.66666666666669</v>
       </c>
       <c r="E17" s="15">
-        <f t="shared" si="3"/>
-        <v>233.33333333333331</v>
+        <f t="shared" si="2"/>
+        <v>316.26666666666665</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="4"/>
-        <v>222.875</v>
+        <f t="shared" si="5"/>
+        <v>145.85000000000002</v>
       </c>
       <c r="J17" s="36" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="37">
         <f>E5</f>
-        <v>0</v>
+        <v>47.200000000000038</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6824,31 +6969,31 @@
         <v>9</v>
       </c>
       <c r="B18" s="13">
-        <f t="shared" si="5"/>
-        <v>162.6</v>
+        <f t="shared" si="3"/>
+        <v>217.1</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="2"/>
-        <v>147.79999999999995</v>
+        <f t="shared" si="4"/>
+        <v>96.799999999999983</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="3"/>
-        <v>268.20000000000005</v>
+        <f t="shared" si="2"/>
+        <v>273</v>
       </c>
       <c r="E18" s="15">
-        <f t="shared" si="3"/>
-        <v>262.5</v>
+        <f t="shared" si="2"/>
+        <v>349.9</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="4"/>
-        <v>237</v>
+        <f t="shared" si="5"/>
+        <v>154.77500000000003</v>
       </c>
       <c r="J18" s="36" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="37">
         <f>E6</f>
-        <v>29.166666666666668</v>
+        <v>33.633333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6856,31 +7001,31 @@
         <v>10</v>
       </c>
       <c r="B19" s="13">
-        <f t="shared" si="5"/>
-        <v>180.79999999999998</v>
+        <f t="shared" si="3"/>
+        <v>238.13333333333333</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="2"/>
-        <v>156.64999999999995</v>
+        <f t="shared" si="4"/>
+        <v>102.39999999999998</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="3"/>
-        <v>298.00000000000006</v>
+        <f t="shared" si="2"/>
+        <v>303.33333333333331</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="3"/>
-        <v>291.66666666666669</v>
+        <f t="shared" si="2"/>
+        <v>383.5333333333333</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="4"/>
-        <v>251.125</v>
+        <f t="shared" si="5"/>
+        <v>163.70000000000005</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>21</v>
       </c>
       <c r="K19" s="37">
         <f>E7</f>
-        <v>34.285714285714285</v>
+        <v>29.732408325074331</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6888,24 +7033,24 @@
         <v>11</v>
       </c>
       <c r="B20" s="13">
-        <f t="shared" si="5"/>
-        <v>198.99999999999997</v>
+        <f t="shared" si="3"/>
+        <v>259.16666666666669</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="2"/>
-        <v>165.49999999999994</v>
+        <f t="shared" si="4"/>
+        <v>107.99999999999997</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="3"/>
-        <v>327.80000000000007</v>
+        <f t="shared" si="2"/>
+        <v>333.66666666666663</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" si="3"/>
-        <v>320.83333333333337</v>
+        <f t="shared" si="2"/>
+        <v>417.16666666666663</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="4"/>
-        <v>265.25</v>
+        <f t="shared" si="5"/>
+        <v>172.62500000000006</v>
       </c>
       <c r="J20" s="36"/>
       <c r="K20" s="37"/>
@@ -6915,31 +7060,31 @@
         <v>12</v>
       </c>
       <c r="B21" s="13">
-        <f t="shared" si="5"/>
-        <v>217.19999999999996</v>
+        <f t="shared" si="3"/>
+        <v>280.20000000000005</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="2"/>
-        <v>174.34999999999994</v>
+        <f t="shared" si="4"/>
+        <v>113.59999999999997</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="3"/>
-        <v>357.60000000000008</v>
+        <f t="shared" si="2"/>
+        <v>363.99999999999994</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" si="3"/>
-        <v>350.00000000000006</v>
+        <f t="shared" si="2"/>
+        <v>450.79999999999995</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="4"/>
-        <v>279.375</v>
+        <f t="shared" si="5"/>
+        <v>181.55000000000007</v>
       </c>
       <c r="J21" s="36" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="37">
         <f>F5</f>
-        <v>109.875</v>
+        <v>74.450000000000017</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6947,31 +7092,31 @@
         <v>13</v>
       </c>
       <c r="B22" s="13">
-        <f t="shared" si="5"/>
-        <v>235.39999999999995</v>
+        <f t="shared" si="3"/>
+        <v>301.23333333333341</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="2"/>
-        <v>183.19999999999993</v>
+        <f t="shared" si="4"/>
+        <v>119.19999999999996</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="3"/>
-        <v>387.40000000000009</v>
+        <f t="shared" si="2"/>
+        <v>394.33333333333326</v>
       </c>
       <c r="E22" s="15">
-        <f t="shared" si="3"/>
-        <v>379.16666666666674</v>
+        <f t="shared" si="2"/>
+        <v>484.43333333333328</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="4"/>
-        <v>293.5</v>
+        <f t="shared" si="5"/>
+        <v>190.47500000000008</v>
       </c>
       <c r="J22" s="36" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="37">
         <f>F6</f>
-        <v>14.125</v>
+        <v>8.9250000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6979,31 +7124,31 @@
         <v>14</v>
       </c>
       <c r="B23" s="13">
-        <f t="shared" si="5"/>
-        <v>253.59999999999994</v>
+        <f t="shared" si="3"/>
+        <v>322.26666666666677</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="2"/>
-        <v>192.04999999999993</v>
+        <f t="shared" si="4"/>
+        <v>124.79999999999995</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="3"/>
-        <v>417.2000000000001</v>
+        <f t="shared" si="2"/>
+        <v>424.66666666666657</v>
       </c>
       <c r="E23" s="15">
-        <f t="shared" si="3"/>
-        <v>408.33333333333343</v>
+        <f t="shared" si="2"/>
+        <v>518.06666666666661</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="3"/>
-        <v>307.625</v>
+        <f t="shared" si="5"/>
+        <v>199.40000000000009</v>
       </c>
       <c r="J23" s="38" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="39">
         <f>F7</f>
-        <v>7.0796460176991154</v>
+        <v>11.204481792717086</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -7011,24 +7156,24 @@
         <v>15</v>
       </c>
       <c r="B24" s="13">
-        <f t="shared" si="5"/>
-        <v>271.79999999999995</v>
+        <f t="shared" si="3"/>
+        <v>343.30000000000013</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="2"/>
-        <v>200.89999999999992</v>
+        <f t="shared" si="4"/>
+        <v>130.39999999999995</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="3"/>
-        <v>447.00000000000011</v>
+        <f t="shared" si="2"/>
+        <v>454.99999999999989</v>
       </c>
       <c r="E24" s="15">
-        <f t="shared" si="3"/>
-        <v>437.50000000000011</v>
+        <f t="shared" si="2"/>
+        <v>551.69999999999993</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="3"/>
-        <v>321.75</v>
+        <f t="shared" si="5"/>
+        <v>208.3250000000001</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -7036,24 +7181,24 @@
         <v>16</v>
       </c>
       <c r="B25" s="13">
-        <f t="shared" si="5"/>
-        <v>289.99999999999994</v>
+        <f t="shared" si="3"/>
+        <v>364.33333333333348</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="2"/>
-        <v>209.74999999999991</v>
+        <f t="shared" si="4"/>
+        <v>135.99999999999994</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="3"/>
-        <v>476.80000000000013</v>
+        <f t="shared" si="2"/>
+        <v>485.3333333333332</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" si="3"/>
-        <v>466.6666666666668</v>
+        <f t="shared" si="2"/>
+        <v>585.33333333333326</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="3"/>
-        <v>335.875</v>
+        <f t="shared" si="5"/>
+        <v>217.25000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -7061,24 +7206,24 @@
         <v>17</v>
       </c>
       <c r="B26" s="13">
-        <f t="shared" si="5"/>
-        <v>308.19999999999993</v>
+        <f t="shared" si="3"/>
+        <v>385.36666666666684</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="2"/>
-        <v>218.59999999999991</v>
+        <f t="shared" si="4"/>
+        <v>141.59999999999994</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="3"/>
-        <v>506.60000000000014</v>
+        <f t="shared" si="2"/>
+        <v>515.66666666666652</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" si="3"/>
-        <v>495.83333333333348</v>
+        <f t="shared" si="2"/>
+        <v>618.96666666666658</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="3"/>
-        <v>350</v>
+        <f t="shared" si="5"/>
+        <v>226.17500000000013</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -7086,24 +7231,24 @@
         <v>18</v>
       </c>
       <c r="B27" s="13">
-        <f t="shared" si="5"/>
-        <v>326.39999999999992</v>
+        <f t="shared" si="3"/>
+        <v>406.4000000000002</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="2"/>
-        <v>227.4499999999999</v>
+        <f t="shared" si="4"/>
+        <v>147.19999999999993</v>
       </c>
       <c r="D27" s="9">
         <f t="shared" ref="D27:F28" si="6">D26+D$6</f>
-        <v>536.40000000000009</v>
+        <v>545.99999999999989</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="6"/>
-        <v>525.00000000000011</v>
+        <v>652.59999999999991</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="6"/>
-        <v>364.125</v>
+        <f t="shared" si="5"/>
+        <v>235.10000000000014</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -7111,571 +7256,676 @@
         <v>19</v>
       </c>
       <c r="B28" s="13">
-        <f t="shared" si="5"/>
-        <v>344.59999999999991</v>
+        <f t="shared" si="3"/>
+        <v>427.43333333333356</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="2"/>
-        <v>236.2999999999999</v>
+        <f t="shared" si="4"/>
+        <v>152.79999999999993</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="6"/>
-        <v>566.20000000000005</v>
+        <v>576.33333333333326</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="6"/>
-        <v>554.16666666666674</v>
+        <v>686.23333333333323</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="6"/>
-        <v>378.25</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>244.02500000000015</v>
+      </c>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
       <c r="B29" s="13">
-        <f t="shared" si="5"/>
-        <v>362.7999999999999</v>
+        <f t="shared" si="3"/>
+        <v>448.46666666666692</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="2"/>
-        <v>245.14999999999989</v>
+        <f t="shared" si="4"/>
+        <v>158.39999999999992</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" ref="D29:E32" si="7">D28+D$6</f>
-        <v>596</v>
+        <v>606.66666666666663</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="7"/>
-        <v>583.33333333333337</v>
+        <v>719.86666666666656</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="4"/>
-        <v>392.375</v>
-      </c>
-      <c r="G29" s="14"/>
+        <f t="shared" si="5"/>
+        <v>252.95000000000016</v>
+      </c>
+      <c r="G29" s="72"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21</v>
       </c>
       <c r="B30" s="13">
-        <f t="shared" si="5"/>
-        <v>380.99999999999989</v>
+        <f t="shared" si="3"/>
+        <v>469.50000000000028</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="2"/>
-        <v>253.99999999999989</v>
+        <f t="shared" si="4"/>
+        <v>163.99999999999991</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="7"/>
-        <v>625.79999999999995</v>
+        <v>637</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="7"/>
-        <v>612.5</v>
+        <v>753.49999999999989</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="4"/>
-        <v>406.5</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>261.87500000000017</v>
+      </c>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>22</v>
       </c>
       <c r="B31" s="13">
-        <f t="shared" si="5"/>
-        <v>399.19999999999987</v>
+        <f t="shared" si="3"/>
+        <v>490.53333333333364</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="2"/>
-        <v>262.84999999999991</v>
+        <f t="shared" si="4"/>
+        <v>169.59999999999991</v>
       </c>
       <c r="D31" s="9">
         <f t="shared" si="7"/>
-        <v>655.59999999999991</v>
+        <v>667.33333333333337</v>
       </c>
       <c r="E31" s="15">
         <f t="shared" si="7"/>
-        <v>641.66666666666663</v>
+        <v>787.13333333333321</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="4"/>
-        <v>420.625</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>270.80000000000018</v>
+      </c>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="71"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>23</v>
       </c>
       <c r="B32" s="13">
-        <f t="shared" si="5"/>
-        <v>417.39999999999986</v>
+        <f t="shared" si="3"/>
+        <v>511.566666666667</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="2"/>
-        <v>271.69999999999993</v>
+        <f t="shared" si="4"/>
+        <v>175.1999999999999</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="7"/>
-        <v>685.39999999999986</v>
+        <v>697.66666666666674</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="7"/>
-        <v>670.83333333333326</v>
+        <v>820.76666666666654</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="4"/>
-        <v>434.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>279.72500000000019</v>
+      </c>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="71"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24</v>
       </c>
       <c r="B33" s="13">
         <f t="shared" ref="B33:F48" si="8">B32+B$6</f>
-        <v>435.59999999999985</v>
+        <v>532.60000000000036</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" si="8"/>
-        <v>280.54999999999995</v>
+        <v>180.7999999999999</v>
       </c>
       <c r="D33" s="9">
         <f t="shared" si="8"/>
-        <v>715.19999999999982</v>
+        <v>728.00000000000011</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="8"/>
-        <v>699.99999999999989</v>
+        <v>854.39999999999986</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="4"/>
-        <v>448.875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F33" si="9">F32+F$6</f>
+        <v>288.6500000000002</v>
+      </c>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="71"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25</v>
       </c>
       <c r="B34" s="13">
         <f t="shared" si="8"/>
-        <v>453.79999999999984</v>
+        <v>553.63333333333367</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="8"/>
-        <v>289.39999999999998</v>
+        <v>186.39999999999989</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" si="8"/>
-        <v>744.99999999999977</v>
+        <v>758.33333333333348</v>
       </c>
       <c r="E34" s="15">
         <f t="shared" si="8"/>
-        <v>729.16666666666652</v>
+        <v>888.03333333333319</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="4"/>
-        <v>463</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F34" si="10">F33+F$6</f>
+        <v>297.57500000000022</v>
+      </c>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="71"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
       <c r="B35" s="13">
         <f t="shared" si="8"/>
-        <v>471.99999999999983</v>
+        <v>574.66666666666697</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" si="8"/>
-        <v>298.25</v>
+        <v>191.99999999999989</v>
       </c>
       <c r="D35" s="9">
         <f t="shared" si="8"/>
-        <v>774.79999999999973</v>
+        <v>788.66666666666686</v>
       </c>
       <c r="E35" s="15">
         <f t="shared" si="8"/>
-        <v>758.33333333333314</v>
+        <v>921.66666666666652</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="4"/>
-        <v>477.125</v>
-      </c>
-      <c r="J35" s="33"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F35" si="11">F34+F$6</f>
+        <v>306.50000000000023</v>
+      </c>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="71"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>27</v>
       </c>
       <c r="B36" s="13">
         <f t="shared" si="8"/>
-        <v>490.19999999999982</v>
+        <v>595.70000000000027</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" si="8"/>
-        <v>307.10000000000002</v>
+        <v>197.59999999999988</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="8"/>
-        <v>804.59999999999968</v>
+        <v>819.00000000000023</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="8"/>
-        <v>787.49999999999977</v>
+        <v>955.29999999999984</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="4"/>
-        <v>491.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F36" si="12">F35+F$6</f>
+        <v>315.42500000000024</v>
+      </c>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="71"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28</v>
       </c>
       <c r="B37" s="13">
         <f t="shared" si="8"/>
-        <v>508.39999999999981</v>
+        <v>616.73333333333358</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" si="8"/>
-        <v>315.95000000000005</v>
+        <v>203.19999999999987</v>
       </c>
       <c r="D37" s="9">
         <f t="shared" si="8"/>
-        <v>834.39999999999964</v>
+        <v>849.3333333333336</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="8"/>
-        <v>816.6666666666664</v>
+        <v>988.93333333333317</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="4"/>
-        <v>505.375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F37" si="13">F36+F$6</f>
+        <v>324.35000000000025</v>
+      </c>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="71"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>29</v>
       </c>
       <c r="B38" s="13">
         <f t="shared" si="8"/>
-        <v>526.5999999999998</v>
+        <v>637.76666666666688</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="8"/>
-        <v>324.80000000000007</v>
+        <v>208.79999999999987</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" si="8"/>
-        <v>864.19999999999959</v>
+        <v>879.66666666666697</v>
       </c>
       <c r="E38" s="15">
         <f t="shared" si="8"/>
-        <v>845.83333333333303</v>
+        <v>1022.5666666666665</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="4"/>
-        <v>519.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F38" si="14">F37+F$6</f>
+        <v>333.27500000000026</v>
+      </c>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="71"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>30</v>
       </c>
       <c r="B39" s="13">
         <f t="shared" si="8"/>
-        <v>544.79999999999984</v>
+        <v>658.80000000000018</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" si="8"/>
-        <v>333.65000000000009</v>
+        <v>214.39999999999986</v>
       </c>
       <c r="D39" s="43">
-        <v>894</v>
+        <v>910</v>
       </c>
       <c r="E39" s="15">
         <f t="shared" si="8"/>
-        <v>874.99999999999966</v>
+        <v>1056.1999999999998</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="4"/>
-        <v>533.625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F39" si="15">F38+F$6</f>
+        <v>342.20000000000027</v>
+      </c>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="71"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>31</v>
       </c>
       <c r="B40" s="13">
         <f t="shared" si="8"/>
-        <v>562.99999999999989</v>
+        <v>679.83333333333348</v>
       </c>
       <c r="C40" s="3">
         <f t="shared" si="8"/>
-        <v>342.50000000000011</v>
+        <v>219.99999999999986</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="8"/>
-        <v>923.8</v>
+        <v>940.33333333333337</v>
       </c>
       <c r="E40" s="15">
         <f t="shared" si="8"/>
-        <v>904.16666666666629</v>
+        <v>1089.8333333333333</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="8"/>
-        <v>547.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F40" si="16">F39+F$6</f>
+        <v>351.12500000000028</v>
+      </c>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="71"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>32</v>
       </c>
       <c r="B41" s="13">
         <f t="shared" si="8"/>
-        <v>581.19999999999993</v>
+        <v>700.86666666666679</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" si="8"/>
-        <v>351.35000000000014</v>
+        <v>225.59999999999985</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" si="8"/>
-        <v>953.59999999999991</v>
+        <v>970.66666666666674</v>
       </c>
       <c r="E41" s="15">
         <f t="shared" si="8"/>
-        <v>933.33333333333292</v>
+        <v>1123.4666666666667</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="8"/>
-        <v>561.875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F41" si="17">F40+F$6</f>
+        <v>360.0500000000003</v>
+      </c>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="71"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>33</v>
       </c>
       <c r="B42" s="13">
         <f t="shared" si="8"/>
-        <v>599.4</v>
+        <v>721.90000000000009</v>
       </c>
       <c r="C42" s="3">
         <f t="shared" si="8"/>
-        <v>360.20000000000016</v>
+        <v>231.19999999999985</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="8"/>
-        <v>983.39999999999986</v>
+        <v>1001.0000000000001</v>
       </c>
       <c r="E42" s="15">
         <f t="shared" si="8"/>
-        <v>962.49999999999955</v>
+        <v>1157.1000000000001</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="4"/>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F42" si="18">F41+F$6</f>
+        <v>368.97500000000031</v>
+      </c>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="71"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>34</v>
       </c>
       <c r="B43" s="13">
         <f t="shared" si="8"/>
-        <v>617.6</v>
+        <v>742.93333333333339</v>
       </c>
       <c r="C43" s="3">
         <f t="shared" si="8"/>
-        <v>369.05000000000018</v>
+        <v>236.79999999999984</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" si="8"/>
-        <v>1013.1999999999998</v>
+        <v>1031.3333333333335</v>
       </c>
       <c r="E43" s="15">
         <f t="shared" si="8"/>
-        <v>991.66666666666617</v>
+        <v>1190.7333333333336</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="4"/>
-        <v>590.125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F43" si="19">F42+F$6</f>
+        <v>377.90000000000032</v>
+      </c>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="71"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
       <c r="B44" s="13">
         <f t="shared" si="8"/>
-        <v>635.80000000000007</v>
+        <v>763.9666666666667</v>
       </c>
       <c r="C44" s="3">
         <f t="shared" si="8"/>
-        <v>377.9000000000002</v>
+        <v>242.39999999999984</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="8"/>
-        <v>1042.9999999999998</v>
+        <v>1061.6666666666667</v>
       </c>
       <c r="E44" s="15">
         <f t="shared" si="8"/>
-        <v>1020.8333333333328</v>
+        <v>1224.366666666667</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="4"/>
-        <v>604.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F44" si="20">F43+F$6</f>
+        <v>386.82500000000033</v>
+      </c>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="71"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>36</v>
       </c>
       <c r="B45" s="40">
-        <v>654</v>
+        <v>785</v>
       </c>
       <c r="C45" s="3">
         <f t="shared" si="8"/>
-        <v>386.75000000000023</v>
+        <v>247.99999999999983</v>
       </c>
       <c r="D45" s="9">
         <f t="shared" si="8"/>
-        <v>1072.7999999999997</v>
+        <v>1092</v>
       </c>
       <c r="E45" s="42">
-        <v>1050</v>
+        <v>1258</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="4"/>
-        <v>618.375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F45" si="21">F44+F$6</f>
+        <v>395.75000000000034</v>
+      </c>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="71"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>37</v>
       </c>
       <c r="B46" s="13">
         <f t="shared" si="8"/>
-        <v>672.2</v>
+        <v>806.0333333333333</v>
       </c>
       <c r="C46" s="3">
         <f t="shared" si="8"/>
-        <v>395.60000000000025</v>
+        <v>253.59999999999982</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" si="8"/>
-        <v>1102.5999999999997</v>
+        <v>1122.3333333333333</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="8"/>
-        <v>1079.1666666666667</v>
+        <v>1291.6333333333334</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="4"/>
-        <v>632.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F46" si="22">F45+F$6</f>
+        <v>404.67500000000035</v>
+      </c>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="71"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>38</v>
       </c>
       <c r="B47" s="13">
         <f t="shared" si="8"/>
-        <v>690.40000000000009</v>
+        <v>827.06666666666661</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" si="8"/>
-        <v>404.45000000000027</v>
+        <v>259.19999999999982</v>
       </c>
       <c r="D47" s="9">
         <f t="shared" si="8"/>
-        <v>1132.3999999999996</v>
+        <v>1152.6666666666665</v>
       </c>
       <c r="E47" s="15">
         <f t="shared" si="8"/>
-        <v>1108.3333333333335</v>
+        <v>1325.2666666666669</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="4"/>
-        <v>646.625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F47:F48" si="23">F46+F$6</f>
+        <v>413.60000000000036</v>
+      </c>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="71"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>39</v>
       </c>
       <c r="B48" s="13">
         <f t="shared" si="8"/>
-        <v>708.60000000000014</v>
+        <v>848.09999999999991</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="8"/>
-        <v>413.3000000000003</v>
+        <f t="shared" ref="C48" si="24">C47+C$6</f>
+        <v>264.79999999999984</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" si="8"/>
-        <v>1162.1999999999996</v>
+        <v>1182.9999999999998</v>
       </c>
       <c r="E48" s="15">
         <f t="shared" si="8"/>
-        <v>1137.5000000000002</v>
+        <v>1358.9000000000003</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="4"/>
-        <v>660.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v>422.52500000000038</v>
+      </c>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="71"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40</v>
       </c>
       <c r="B49" s="13">
-        <f t="shared" ref="B49:E64" si="9">B48+B$6</f>
-        <v>726.80000000000018</v>
+        <f t="shared" ref="B49:E64" si="25">B48+B$6</f>
+        <v>869.13333333333321</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="9"/>
-        <v>422.15000000000032</v>
+        <f t="shared" si="25"/>
+        <v>270.39999999999986</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="9"/>
-        <v>1191.9999999999995</v>
+        <f t="shared" si="25"/>
+        <v>1213.333333333333</v>
       </c>
       <c r="E49" s="15">
-        <f t="shared" si="9"/>
-        <v>1166.666666666667</v>
+        <f t="shared" si="25"/>
+        <v>1392.5333333333338</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="4"/>
-        <v>674.875</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F49" si="26">F48+F$6</f>
+        <v>431.45000000000039</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>41</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" si="9"/>
-        <v>745.00000000000023</v>
-      </c>
-      <c r="C50" s="41">
-        <v>431</v>
+        <f t="shared" si="25"/>
+        <v>890.16666666666652</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="25"/>
+        <v>275.99999999999989</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="9"/>
-        <v>1221.7999999999995</v>
+        <f t="shared" si="25"/>
+        <v>1243.6666666666663</v>
       </c>
       <c r="E50" s="15">
-        <f t="shared" si="9"/>
-        <v>1195.8333333333337</v>
-      </c>
-      <c r="F50" s="41">
-        <v>689</v>
+        <f t="shared" si="25"/>
+        <v>1426.1666666666672</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" ref="F50" si="27">F49+F$6</f>
+        <v>440.3750000000004</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7683,24 +7933,24 @@
         <v>42</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" si="9"/>
-        <v>763.20000000000027</v>
+        <f t="shared" si="25"/>
+        <v>911.19999999999982</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="9"/>
-        <v>439.85</v>
+        <f t="shared" si="25"/>
+        <v>281.59999999999991</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="9"/>
-        <v>1251.5999999999995</v>
+        <f t="shared" si="25"/>
+        <v>1273.9999999999995</v>
       </c>
       <c r="E51" s="15">
-        <f t="shared" si="9"/>
-        <v>1225.0000000000005</v>
+        <f t="shared" si="25"/>
+        <v>1459.8000000000006</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="4"/>
-        <v>703.125</v>
+        <f t="shared" ref="F51" si="28">F50+F$6</f>
+        <v>449.30000000000041</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -7708,24 +7958,24 @@
         <v>43</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="9"/>
-        <v>781.40000000000032</v>
+        <f t="shared" si="25"/>
+        <v>932.23333333333312</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="9"/>
-        <v>448.70000000000005</v>
+        <f t="shared" si="25"/>
+        <v>287.19999999999993</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="9"/>
-        <v>1281.3999999999994</v>
+        <f t="shared" si="25"/>
+        <v>1304.3333333333328</v>
       </c>
       <c r="E52" s="15">
-        <f t="shared" si="9"/>
-        <v>1254.1666666666672</v>
+        <f t="shared" si="25"/>
+        <v>1493.4333333333341</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="4"/>
-        <v>717.25</v>
+        <f t="shared" ref="F52" si="29">F51+F$6</f>
+        <v>458.22500000000042</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7733,74 +7983,72 @@
         <v>44</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="9"/>
-        <v>799.60000000000036</v>
+        <f t="shared" si="25"/>
+        <v>953.26666666666642</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="9"/>
-        <v>457.55000000000007</v>
+        <f t="shared" si="25"/>
+        <v>292.79999999999995</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="9"/>
-        <v>1311.1999999999994</v>
+        <f t="shared" si="25"/>
+        <v>1334.6666666666661</v>
       </c>
       <c r="E53" s="15">
-        <f t="shared" si="9"/>
-        <v>1283.3333333333339</v>
+        <f t="shared" si="25"/>
+        <v>1527.0666666666675</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="4"/>
-        <v>731.375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F53" si="30">F52+F$6</f>
+        <v>467.15000000000043</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45</v>
       </c>
       <c r="B54" s="13">
-        <f t="shared" si="9"/>
-        <v>817.80000000000041</v>
+        <f t="shared" si="25"/>
+        <v>974.29999999999973</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="9"/>
-        <v>466.40000000000009</v>
+        <f t="shared" si="25"/>
+        <v>298.39999999999998</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="9"/>
-        <v>1340.9999999999993</v>
+        <f t="shared" si="25"/>
+        <v>1364.9999999999993</v>
       </c>
       <c r="E54" s="15">
-        <f t="shared" si="9"/>
-        <v>1312.5000000000007</v>
+        <f t="shared" si="25"/>
+        <v>1560.700000000001</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="4"/>
-        <v>745.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F54" si="31">F53+F$6</f>
+        <v>476.07500000000044</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>46</v>
       </c>
       <c r="B55" s="13">
-        <f t="shared" si="9"/>
-        <v>836.00000000000045</v>
-      </c>
-      <c r="C55" s="3">
-        <f t="shared" si="9"/>
-        <v>475.25000000000011</v>
+        <f t="shared" si="25"/>
+        <v>995.33333333333303</v>
+      </c>
+      <c r="C55" s="41">
+        <v>304</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="9"/>
-        <v>1370.7999999999993</v>
+        <f t="shared" si="25"/>
+        <v>1395.3333333333326</v>
       </c>
       <c r="E55" s="15">
-        <f t="shared" si="9"/>
-        <v>1341.6666666666674</v>
-      </c>
-      <c r="F55" s="3">
-        <f t="shared" si="4"/>
-        <v>759.625</v>
+        <f t="shared" si="25"/>
+        <v>1594.3333333333344</v>
+      </c>
+      <c r="F55" s="41">
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7808,24 +8056,24 @@
         <v>47</v>
       </c>
       <c r="B56" s="13">
-        <f t="shared" si="9"/>
-        <v>854.2000000000005</v>
+        <f t="shared" si="25"/>
+        <v>1016.3666666666663</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" si="9"/>
-        <v>484.10000000000014</v>
+        <f t="shared" si="25"/>
+        <v>309.60000000000002</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="9"/>
-        <v>1400.5999999999992</v>
+        <f t="shared" si="25"/>
+        <v>1425.6666666666658</v>
       </c>
       <c r="E56" s="15">
-        <f t="shared" si="9"/>
-        <v>1370.8333333333342</v>
+        <f t="shared" si="25"/>
+        <v>1627.9666666666678</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="4"/>
-        <v>773.75</v>
+        <f t="shared" ref="F56" si="32">F55+F$6</f>
+        <v>493.92500000000001</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7833,24 +8081,24 @@
         <v>48</v>
       </c>
       <c r="B57" s="13">
-        <f t="shared" si="9"/>
-        <v>872.40000000000055</v>
+        <f t="shared" si="25"/>
+        <v>1037.3999999999996</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="9"/>
-        <v>492.95000000000016</v>
+        <f t="shared" si="25"/>
+        <v>315.20000000000005</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="9"/>
-        <v>1430.3999999999992</v>
+        <f t="shared" si="25"/>
+        <v>1455.9999999999991</v>
       </c>
       <c r="E57" s="15">
-        <f t="shared" si="9"/>
-        <v>1400.0000000000009</v>
+        <f t="shared" si="25"/>
+        <v>1661.6000000000013</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="4"/>
-        <v>787.875</v>
+        <f t="shared" ref="F57" si="33">F56+F$6</f>
+        <v>502.85</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -7858,24 +8106,24 @@
         <v>49</v>
       </c>
       <c r="B58" s="13">
-        <f t="shared" si="9"/>
-        <v>890.60000000000059</v>
+        <f t="shared" si="25"/>
+        <v>1058.4333333333329</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" si="9"/>
-        <v>501.80000000000018</v>
+        <f t="shared" si="25"/>
+        <v>320.80000000000007</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="9"/>
-        <v>1460.1999999999991</v>
+        <f t="shared" si="25"/>
+        <v>1486.3333333333323</v>
       </c>
       <c r="E58" s="15">
-        <f t="shared" si="9"/>
-        <v>1429.1666666666677</v>
+        <f t="shared" si="25"/>
+        <v>1695.2333333333347</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="4"/>
-        <v>802</v>
+        <f t="shared" ref="F58" si="34">F57+F$6</f>
+        <v>511.77500000000003</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7883,24 +8131,24 @@
         <v>50</v>
       </c>
       <c r="B59" s="13">
-        <f t="shared" si="9"/>
-        <v>908.80000000000064</v>
+        <f t="shared" si="25"/>
+        <v>1079.4666666666662</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="9"/>
-        <v>510.6500000000002</v>
+        <f t="shared" si="25"/>
+        <v>326.40000000000009</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="9"/>
-        <v>1489.9999999999991</v>
+        <f t="shared" si="25"/>
+        <v>1516.6666666666656</v>
       </c>
       <c r="E59" s="15">
-        <f t="shared" si="9"/>
-        <v>1458.3333333333344</v>
+        <f t="shared" si="25"/>
+        <v>1728.8666666666682</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="4"/>
-        <v>816.125</v>
+        <f t="shared" ref="F59" si="35">F58+F$6</f>
+        <v>520.70000000000005</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7908,24 +8156,24 @@
         <v>51</v>
       </c>
       <c r="B60" s="13">
-        <f t="shared" si="9"/>
-        <v>927.00000000000068</v>
+        <f t="shared" si="25"/>
+        <v>1100.4999999999995</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="9"/>
-        <v>519.50000000000023</v>
+        <f t="shared" si="25"/>
+        <v>332.00000000000011</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="9"/>
-        <v>1519.799999999999</v>
+        <f t="shared" si="25"/>
+        <v>1546.9999999999989</v>
       </c>
       <c r="E60" s="15">
-        <f t="shared" si="9"/>
-        <v>1487.5000000000011</v>
+        <f t="shared" si="25"/>
+        <v>1762.5000000000016</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="4"/>
-        <v>830.25</v>
+        <f t="shared" ref="F60" si="36">F59+F$6</f>
+        <v>529.625</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7933,24 +8181,24 @@
         <v>52</v>
       </c>
       <c r="B61" s="13">
-        <f t="shared" si="9"/>
-        <v>945.20000000000073</v>
+        <f t="shared" si="25"/>
+        <v>1121.5333333333328</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="9"/>
-        <v>528.35000000000025</v>
+        <f t="shared" si="25"/>
+        <v>337.60000000000014</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="9"/>
-        <v>1549.599999999999</v>
+        <f t="shared" si="25"/>
+        <v>1577.3333333333321</v>
       </c>
       <c r="E61" s="15">
-        <f t="shared" si="9"/>
-        <v>1516.6666666666679</v>
+        <f t="shared" si="25"/>
+        <v>1796.133333333335</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="4"/>
-        <v>844.375</v>
+        <f t="shared" ref="F61" si="37">F60+F$6</f>
+        <v>538.54999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -7958,24 +8206,24 @@
         <v>53</v>
       </c>
       <c r="B62" s="13">
-        <f t="shared" si="9"/>
-        <v>963.40000000000077</v>
+        <f t="shared" si="25"/>
+        <v>1142.5666666666662</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="9"/>
-        <v>537.20000000000027</v>
+        <f t="shared" si="25"/>
+        <v>343.20000000000016</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="9"/>
-        <v>1579.399999999999</v>
+        <f t="shared" si="25"/>
+        <v>1607.6666666666654</v>
       </c>
       <c r="E62" s="15">
-        <f t="shared" si="9"/>
-        <v>1545.8333333333346</v>
+        <f t="shared" si="25"/>
+        <v>1829.7666666666685</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="4"/>
-        <v>858.5</v>
+        <f t="shared" ref="F62" si="38">F61+F$6</f>
+        <v>547.47499999999991</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -7983,24 +8231,24 @@
         <v>54</v>
       </c>
       <c r="B63" s="13">
-        <f t="shared" si="9"/>
-        <v>981.60000000000082</v>
+        <f t="shared" si="25"/>
+        <v>1163.5999999999995</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="9"/>
-        <v>546.0500000000003</v>
+        <f t="shared" si="25"/>
+        <v>348.80000000000018</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="9"/>
-        <v>1609.1999999999989</v>
+        <f t="shared" si="25"/>
+        <v>1637.9999999999986</v>
       </c>
       <c r="E63" s="15">
-        <f t="shared" si="9"/>
-        <v>1575.0000000000014</v>
-      </c>
-      <c r="F63" s="16">
-        <f t="shared" si="4"/>
-        <v>872.625</v>
+        <f t="shared" si="25"/>
+        <v>1863.4000000000019</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" ref="F63" si="39">F62+F$6</f>
+        <v>556.39999999999986</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -8008,24 +8256,24 @@
         <v>55</v>
       </c>
       <c r="B64" s="13">
-        <f t="shared" si="9"/>
-        <v>999.80000000000086</v>
+        <f t="shared" si="25"/>
+        <v>1184.6333333333328</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="9"/>
-        <v>554.90000000000032</v>
+        <f t="shared" si="25"/>
+        <v>354.4000000000002</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="9"/>
-        <v>1638.9999999999989</v>
+        <f t="shared" si="25"/>
+        <v>1668.3333333333319</v>
       </c>
       <c r="E64" s="15">
-        <f t="shared" si="9"/>
-        <v>1604.1666666666681</v>
-      </c>
-      <c r="F64" s="16">
-        <f t="shared" si="4"/>
-        <v>886.75</v>
+        <f t="shared" si="25"/>
+        <v>1897.0333333333353</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" ref="F64" si="40">F63+F$6</f>
+        <v>565.32499999999982</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -8033,24 +8281,24 @@
         <v>56</v>
       </c>
       <c r="B65" s="13">
-        <f t="shared" ref="B65:E80" si="10">B64+B$6</f>
-        <v>1018.0000000000009</v>
+        <f t="shared" ref="B65:E80" si="41">B64+B$6</f>
+        <v>1205.6666666666661</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" si="10"/>
-        <v>563.75000000000034</v>
+        <f t="shared" si="41"/>
+        <v>360.00000000000023</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="10"/>
-        <v>1668.7999999999988</v>
+        <f t="shared" si="41"/>
+        <v>1698.6666666666652</v>
       </c>
       <c r="E65" s="15">
-        <f t="shared" si="10"/>
-        <v>1633.3333333333348</v>
-      </c>
-      <c r="F65" s="16">
-        <f t="shared" si="4"/>
-        <v>900.875</v>
+        <f t="shared" si="41"/>
+        <v>1930.6666666666688</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" ref="F65" si="42">F64+F$6</f>
+        <v>574.24999999999977</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -8058,24 +8306,24 @@
         <v>57</v>
       </c>
       <c r="B66" s="13">
-        <f t="shared" si="10"/>
-        <v>1036.200000000001</v>
+        <f t="shared" si="41"/>
+        <v>1226.6999999999994</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="10"/>
-        <v>572.60000000000036</v>
+        <f t="shared" si="41"/>
+        <v>365.60000000000025</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="10"/>
-        <v>1698.5999999999988</v>
+        <f t="shared" si="41"/>
+        <v>1728.9999999999984</v>
       </c>
       <c r="E66" s="15">
-        <f t="shared" si="10"/>
-        <v>1662.5000000000016</v>
-      </c>
-      <c r="F66" s="16">
-        <f t="shared" si="4"/>
-        <v>915</v>
+        <f t="shared" si="41"/>
+        <v>1964.3000000000022</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" ref="F66" si="43">F65+F$6</f>
+        <v>583.17499999999973</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -8083,24 +8331,24 @@
         <v>58</v>
       </c>
       <c r="B67" s="13">
-        <f t="shared" si="10"/>
-        <v>1054.400000000001</v>
+        <f t="shared" si="41"/>
+        <v>1247.7333333333327</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" si="10"/>
-        <v>581.45000000000039</v>
+        <f t="shared" si="41"/>
+        <v>371.20000000000027</v>
       </c>
       <c r="D67" s="9">
-        <f t="shared" si="10"/>
-        <v>1728.3999999999987</v>
+        <f t="shared" si="41"/>
+        <v>1759.3333333333317</v>
       </c>
       <c r="E67" s="15">
-        <f t="shared" si="10"/>
-        <v>1691.6666666666683</v>
-      </c>
-      <c r="F67" s="16">
-        <f t="shared" si="4"/>
-        <v>929.125</v>
+        <f t="shared" si="41"/>
+        <v>1997.9333333333357</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" ref="F67" si="44">F66+F$6</f>
+        <v>592.09999999999968</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8108,24 +8356,24 @@
         <v>59</v>
       </c>
       <c r="B68" s="13">
-        <f t="shared" si="10"/>
-        <v>1072.600000000001</v>
+        <f t="shared" si="41"/>
+        <v>1268.766666666666</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" si="10"/>
-        <v>590.30000000000041</v>
+        <f t="shared" si="41"/>
+        <v>376.8000000000003</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="10"/>
-        <v>1758.1999999999987</v>
+        <f t="shared" si="41"/>
+        <v>1789.6666666666649</v>
       </c>
       <c r="E68" s="15">
-        <f t="shared" si="10"/>
-        <v>1720.8333333333351</v>
-      </c>
-      <c r="F68" s="16">
-        <f t="shared" si="4"/>
-        <v>943.25</v>
+        <f t="shared" si="41"/>
+        <v>2031.5666666666691</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" ref="F68" si="45">F67+F$6</f>
+        <v>601.02499999999964</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -8133,24 +8381,24 @@
         <v>60</v>
       </c>
       <c r="B69" s="13">
-        <f t="shared" si="10"/>
-        <v>1090.8000000000011</v>
+        <f t="shared" si="41"/>
+        <v>1289.7999999999993</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" si="10"/>
-        <v>599.15000000000043</v>
+        <f t="shared" si="41"/>
+        <v>382.40000000000032</v>
       </c>
       <c r="D69" s="9">
-        <f t="shared" si="10"/>
-        <v>1787.9999999999986</v>
+        <f t="shared" si="41"/>
+        <v>1819.9999999999982</v>
       </c>
       <c r="E69" s="15">
-        <f t="shared" si="10"/>
-        <v>1750.0000000000018</v>
-      </c>
-      <c r="F69" s="16">
-        <f t="shared" si="4"/>
-        <v>957.375</v>
+        <f t="shared" si="41"/>
+        <v>2065.2000000000025</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" ref="F69" si="46">F68+F$6</f>
+        <v>609.94999999999959</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8159,17 +8407,17 @@
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="3">
-        <f t="shared" si="10"/>
-        <v>608.00000000000045</v>
+        <f t="shared" si="41"/>
+        <v>388.00000000000034</v>
       </c>
       <c r="D70" s="9">
-        <f t="shared" si="10"/>
-        <v>1817.7999999999986</v>
+        <f t="shared" si="41"/>
+        <v>1850.3333333333314</v>
       </c>
       <c r="E70" s="15"/>
-      <c r="F70" s="16">
-        <f t="shared" si="4"/>
-        <v>971.5</v>
+      <c r="F70" s="3">
+        <f t="shared" ref="F70" si="47">F69+F$6</f>
+        <v>618.87499999999955</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8178,17 +8426,17 @@
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="3">
-        <f t="shared" si="10"/>
-        <v>616.85000000000048</v>
+        <f t="shared" si="41"/>
+        <v>393.60000000000036</v>
       </c>
       <c r="D71" s="9">
-        <f t="shared" si="10"/>
-        <v>1847.5999999999985</v>
+        <f t="shared" si="41"/>
+        <v>1880.6666666666647</v>
       </c>
       <c r="E71" s="15"/>
-      <c r="F71" s="16">
-        <f t="shared" si="4"/>
-        <v>985.625</v>
+      <c r="F71" s="3">
+        <f t="shared" ref="F71" si="48">F70+F$6</f>
+        <v>627.7999999999995</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8197,17 +8445,17 @@
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="3">
-        <f t="shared" si="10"/>
-        <v>625.7000000000005</v>
+        <f t="shared" si="41"/>
+        <v>399.20000000000039</v>
       </c>
       <c r="D72" s="9">
-        <f t="shared" si="10"/>
-        <v>1877.3999999999985</v>
+        <f t="shared" si="41"/>
+        <v>1910.999999999998</v>
       </c>
       <c r="E72" s="15"/>
-      <c r="F72" s="16">
-        <f t="shared" si="4"/>
-        <v>999.75</v>
+      <c r="F72" s="3">
+        <f t="shared" ref="F72" si="49">F71+F$6</f>
+        <v>636.72499999999945</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -8216,17 +8464,17 @@
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="3">
-        <f t="shared" si="10"/>
-        <v>634.55000000000052</v>
+        <f t="shared" si="41"/>
+        <v>404.80000000000041</v>
       </c>
       <c r="D73" s="9">
-        <f t="shared" si="10"/>
-        <v>1907.1999999999985</v>
+        <f t="shared" si="41"/>
+        <v>1941.3333333333312</v>
       </c>
       <c r="E73" s="15"/>
-      <c r="F73" s="16">
-        <f t="shared" si="4"/>
-        <v>1013.875</v>
+      <c r="F73" s="3">
+        <f t="shared" ref="F73" si="50">F72+F$6</f>
+        <v>645.64999999999941</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -8235,17 +8483,17 @@
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="3">
-        <f t="shared" si="10"/>
-        <v>643.40000000000055</v>
+        <f t="shared" si="41"/>
+        <v>410.40000000000043</v>
       </c>
       <c r="D74" s="9">
-        <f t="shared" si="10"/>
-        <v>1936.9999999999984</v>
+        <f t="shared" si="41"/>
+        <v>1971.6666666666645</v>
       </c>
       <c r="E74" s="15"/>
-      <c r="F74" s="16">
-        <f t="shared" si="4"/>
-        <v>1028</v>
+      <c r="F74" s="3">
+        <f t="shared" ref="F74" si="51">F73+F$6</f>
+        <v>654.57499999999936</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8253,17 +8501,17 @@
         <v>66</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="10"/>
-        <v>652.25000000000057</v>
+        <f t="shared" si="41"/>
+        <v>416.00000000000045</v>
       </c>
       <c r="D75" s="9">
-        <f t="shared" si="10"/>
-        <v>1966.7999999999984</v>
+        <f t="shared" si="41"/>
+        <v>2001.9999999999977</v>
       </c>
       <c r="E75" s="15"/>
-      <c r="F75" s="16">
-        <f t="shared" si="4"/>
-        <v>1042.125</v>
+      <c r="F75" s="3">
+        <f t="shared" ref="F75" si="52">F74+F$6</f>
+        <v>663.49999999999932</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -8271,17 +8519,17 @@
         <v>67</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="10"/>
-        <v>661.10000000000059</v>
+        <f t="shared" si="41"/>
+        <v>421.60000000000048</v>
       </c>
       <c r="D76" s="9">
-        <f t="shared" si="10"/>
-        <v>1996.5999999999983</v>
+        <f t="shared" si="41"/>
+        <v>2032.333333333331</v>
       </c>
       <c r="E76" s="15"/>
-      <c r="F76" s="16">
-        <f t="shared" ref="F76:F89" si="11">F75+F$6</f>
-        <v>1056.25</v>
+      <c r="F76" s="3">
+        <f t="shared" ref="F76" si="53">F75+F$6</f>
+        <v>672.42499999999927</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8289,17 +8537,17 @@
         <v>68</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="10"/>
-        <v>669.95000000000061</v>
+        <f t="shared" si="41"/>
+        <v>427.2000000000005</v>
       </c>
       <c r="D77" s="9">
-        <f t="shared" si="10"/>
-        <v>2026.3999999999983</v>
+        <f t="shared" si="41"/>
+        <v>2062.6666666666642</v>
       </c>
       <c r="E77" s="15"/>
-      <c r="F77" s="16">
-        <f t="shared" si="11"/>
-        <v>1070.375</v>
+      <c r="F77" s="3">
+        <f t="shared" ref="F77" si="54">F76+F$6</f>
+        <v>681.34999999999923</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -8307,17 +8555,17 @@
         <v>69</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="10"/>
-        <v>678.80000000000064</v>
+        <f t="shared" si="41"/>
+        <v>432.80000000000052</v>
       </c>
       <c r="D78" s="9">
-        <f t="shared" si="10"/>
-        <v>2056.1999999999985</v>
+        <f t="shared" si="41"/>
+        <v>2092.9999999999977</v>
       </c>
       <c r="E78" s="15"/>
-      <c r="F78" s="16">
-        <f t="shared" si="11"/>
-        <v>1084.5</v>
+      <c r="F78" s="3">
+        <f t="shared" ref="F78" si="55">F77+F$6</f>
+        <v>690.27499999999918</v>
       </c>
       <c r="G78" s="23"/>
     </row>
@@ -8327,17 +8575,17 @@
       </c>
       <c r="B79"/>
       <c r="C79" s="3">
-        <f t="shared" si="10"/>
-        <v>687.65000000000066</v>
+        <f t="shared" si="41"/>
+        <v>438.40000000000055</v>
       </c>
       <c r="D79" s="9">
-        <f t="shared" si="10"/>
-        <v>2085.9999999999986</v>
+        <f t="shared" si="41"/>
+        <v>2123.3333333333312</v>
       </c>
       <c r="E79" s="15"/>
-      <c r="F79" s="16">
-        <f t="shared" si="11"/>
-        <v>1098.625</v>
+      <c r="F79" s="3">
+        <f t="shared" ref="F79" si="56">F78+F$6</f>
+        <v>699.19999999999914</v>
       </c>
       <c r="G79" s="23"/>
       <c r="H79" s="13"/>
@@ -8350,17 +8598,17 @@
       </c>
       <c r="B80"/>
       <c r="C80" s="3">
-        <f t="shared" si="10"/>
-        <v>696.50000000000068</v>
+        <f t="shared" si="41"/>
+        <v>444.00000000000057</v>
       </c>
       <c r="D80" s="9">
-        <f t="shared" si="10"/>
-        <v>2115.7999999999988</v>
+        <f t="shared" si="41"/>
+        <v>2153.6666666666647</v>
       </c>
       <c r="E80" s="15"/>
-      <c r="F80" s="16">
-        <f t="shared" si="11"/>
-        <v>1112.75</v>
+      <c r="F80" s="3">
+        <f t="shared" ref="F80" si="57">F79+F$6</f>
+        <v>708.12499999999909</v>
       </c>
       <c r="G80" s="23"/>
       <c r="H80" s="13"/>
@@ -8373,17 +8621,17 @@
       </c>
       <c r="B81"/>
       <c r="C81" s="3">
-        <f t="shared" ref="C81:D89" si="12">C80+C$6</f>
-        <v>705.3500000000007</v>
+        <f t="shared" ref="C81:D89" si="58">C80+C$6</f>
+        <v>449.60000000000059</v>
       </c>
       <c r="D81" s="9">
-        <f t="shared" si="12"/>
-        <v>2145.599999999999</v>
+        <f t="shared" si="58"/>
+        <v>2183.9999999999982</v>
       </c>
       <c r="E81" s="15"/>
-      <c r="F81" s="16">
-        <f t="shared" si="11"/>
-        <v>1126.875</v>
+      <c r="F81" s="3">
+        <f t="shared" ref="F81" si="59">F80+F$6</f>
+        <v>717.04999999999905</v>
       </c>
       <c r="G81" s="23"/>
       <c r="H81" s="13"/>
@@ -8396,17 +8644,17 @@
       </c>
       <c r="B82"/>
       <c r="C82" s="3">
-        <f t="shared" si="12"/>
-        <v>714.20000000000073</v>
+        <f t="shared" si="58"/>
+        <v>455.20000000000061</v>
       </c>
       <c r="D82" s="9">
-        <f t="shared" si="12"/>
-        <v>2175.3999999999992</v>
+        <f t="shared" si="58"/>
+        <v>2214.3333333333317</v>
       </c>
       <c r="E82" s="15"/>
-      <c r="F82" s="16">
-        <f t="shared" si="11"/>
-        <v>1141</v>
+      <c r="F82" s="3">
+        <f t="shared" ref="F82" si="60">F81+F$6</f>
+        <v>725.974999999999</v>
       </c>
       <c r="G82" s="23"/>
       <c r="H82" s="13"/>
@@ -8419,17 +8667,17 @@
       </c>
       <c r="B83"/>
       <c r="C83" s="3">
-        <f t="shared" si="12"/>
-        <v>723.05000000000075</v>
+        <f t="shared" si="58"/>
+        <v>460.80000000000064</v>
       </c>
       <c r="D83" s="9">
-        <f t="shared" si="12"/>
-        <v>2205.1999999999994</v>
+        <f t="shared" si="58"/>
+        <v>2244.6666666666652</v>
       </c>
       <c r="E83" s="15"/>
-      <c r="F83" s="16">
-        <f t="shared" si="11"/>
-        <v>1155.125</v>
+      <c r="F83" s="3">
+        <f t="shared" ref="F83" si="61">F82+F$6</f>
+        <v>734.89999999999895</v>
       </c>
       <c r="G83" s="23"/>
       <c r="H83" s="13"/>
@@ -8442,17 +8690,17 @@
       </c>
       <c r="B84"/>
       <c r="C84" s="3">
-        <f t="shared" si="12"/>
-        <v>731.90000000000077</v>
+        <f t="shared" si="58"/>
+        <v>466.40000000000066</v>
       </c>
       <c r="D84" s="9">
-        <f t="shared" si="12"/>
-        <v>2234.9999999999995</v>
+        <f t="shared" si="58"/>
+        <v>2274.9999999999986</v>
       </c>
       <c r="E84" s="15"/>
-      <c r="F84" s="16">
-        <f t="shared" si="11"/>
-        <v>1169.25</v>
+      <c r="F84" s="3">
+        <f t="shared" ref="F84" si="62">F83+F$6</f>
+        <v>743.82499999999891</v>
       </c>
       <c r="G84" s="23"/>
       <c r="H84" s="13"/>
@@ -8465,13 +8713,13 @@
       </c>
       <c r="B85"/>
       <c r="C85" s="3">
-        <f t="shared" si="12"/>
-        <v>740.7500000000008</v>
+        <f t="shared" si="58"/>
+        <v>472.00000000000068</v>
       </c>
       <c r="E85" s="15"/>
-      <c r="F85" s="16">
-        <f t="shared" si="11"/>
-        <v>1183.375</v>
+      <c r="F85" s="3">
+        <f t="shared" ref="F85" si="63">F84+F$6</f>
+        <v>752.74999999999886</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
@@ -8484,13 +8732,13 @@
       </c>
       <c r="B86"/>
       <c r="C86" s="3">
-        <f t="shared" si="12"/>
-        <v>749.60000000000082</v>
+        <f t="shared" si="58"/>
+        <v>477.6000000000007</v>
       </c>
       <c r="E86" s="15"/>
-      <c r="F86" s="16">
-        <f t="shared" si="11"/>
-        <v>1197.5</v>
+      <c r="F86" s="3">
+        <f t="shared" ref="F86" si="64">F85+F$6</f>
+        <v>761.67499999999882</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -8503,13 +8751,13 @@
       </c>
       <c r="B87"/>
       <c r="C87" s="3">
-        <f t="shared" si="12"/>
-        <v>758.45000000000084</v>
+        <f t="shared" si="58"/>
+        <v>483.20000000000073</v>
       </c>
       <c r="E87" s="15"/>
-      <c r="F87" s="16">
-        <f t="shared" si="11"/>
-        <v>1211.625</v>
+      <c r="F87" s="3">
+        <f t="shared" ref="F87" si="65">F86+F$6</f>
+        <v>770.59999999999877</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
@@ -8522,13 +8770,13 @@
       </c>
       <c r="B88"/>
       <c r="C88" s="3">
-        <f t="shared" si="12"/>
-        <v>767.30000000000086</v>
+        <f t="shared" si="58"/>
+        <v>488.80000000000075</v>
       </c>
       <c r="E88" s="15"/>
-      <c r="F88" s="16">
-        <f t="shared" si="11"/>
-        <v>1225.75</v>
+      <c r="F88" s="3">
+        <f t="shared" ref="F88" si="66">F87+F$6</f>
+        <v>779.52499999999873</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -8541,13 +8789,13 @@
       </c>
       <c r="B89"/>
       <c r="C89" s="3">
-        <f t="shared" si="12"/>
-        <v>776.15000000000089</v>
+        <f t="shared" si="58"/>
+        <v>494.40000000000077</v>
       </c>
       <c r="E89" s="15"/>
-      <c r="F89" s="16">
-        <f t="shared" si="11"/>
-        <v>1239.875</v>
+      <c r="F89" s="3">
+        <f t="shared" ref="F89" si="67">F88+F$6</f>
+        <v>788.44999999999868</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -8584,4 +8832,323 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="48.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+    </row>
+    <row r="3" spans="1:5" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>